--- a/data/PythoBiomass.xlsx
+++ b/data/PythoBiomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srvpr\Documents\GitHub\bsrvp.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757691f4f86b2132/Documents/GitHub/bsrvp.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5B6063-2610-4606-8EC6-8C8415D9E0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DA5B6063-2610-4606-8EC6-8C8415D9E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C6A02B3-992A-485D-BF5A-7126FDE26054}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>Cyanophyceans</t>
   </si>
   <si>
-    <t>Chlorophyceans</t>
+    <t xml:space="preserve">Total Biomass </t>
   </si>
   <si>
-    <t xml:space="preserve">Total Biomass </t>
+    <t>Chlorophyceae</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -454,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.157181285</v>
+        <v>0.55403491091293766</v>
       </c>
       <c r="C2">
-        <v>2.275454E-2</v>
+        <v>0.34095493337188387</v>
       </c>
       <c r="D2">
-        <v>3.84</v>
+        <v>4.7758235324488849</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -469,13 +469,13 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.30193242399999998</v>
+        <v>0.40912590817625394</v>
       </c>
       <c r="C3">
-        <v>0.11581042</v>
+        <v>0.44674855457315676</v>
       </c>
       <c r="D3">
-        <v>4.46</v>
+        <v>4.5364616722501303</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -484,13 +484,13 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.29936868100000003</v>
+        <v>0.60658077572914004</v>
       </c>
       <c r="C4">
-        <v>0.11982862</v>
+        <v>0.21089627647708548</v>
       </c>
       <c r="D4">
-        <v>3.29</v>
+        <v>4.1313762685669939</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -499,13 +499,13 @@
         <v>116</v>
       </c>
       <c r="B5">
-        <v>0.162060917</v>
+        <v>0.30833408932167428</v>
       </c>
       <c r="C5">
-        <v>1.0821348099999999</v>
+        <v>1.3015250644579746</v>
       </c>
       <c r="D5">
-        <v>2.92</v>
+        <v>3.5976253705320951</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -514,13 +514,13 @@
         <v>143</v>
       </c>
       <c r="B6">
-        <v>0.14839221</v>
+        <v>0.82889990244151845</v>
       </c>
       <c r="C6">
-        <v>0.1375461</v>
+        <v>0.35296451358902703</v>
       </c>
       <c r="D6">
-        <v>2.72</v>
+        <v>2.8677163714881075</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -529,13 +529,13 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>0.53055508699999998</v>
+        <v>0.8222623072323747</v>
       </c>
       <c r="C7">
-        <v>0.48321974000000001</v>
+        <v>1.3274444860360091</v>
       </c>
       <c r="D7">
-        <v>2.99</v>
+        <v>3.1795474318390529</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -544,13 +544,13 @@
         <v>210</v>
       </c>
       <c r="B8">
-        <v>3.0757582800000001</v>
+        <v>3.3032625030337783</v>
       </c>
       <c r="C8">
-        <v>1.15923369</v>
+        <v>1.1683843936233742</v>
       </c>
       <c r="D8">
-        <v>7.23</v>
+        <v>7.8952370317476301</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -559,13 +559,13 @@
         <v>236</v>
       </c>
       <c r="B9">
-        <v>35.431753440000001</v>
+        <v>35.4626979566507</v>
       </c>
       <c r="C9">
-        <v>0.19452164</v>
+        <v>0.73980262962513565</v>
       </c>
       <c r="D9">
-        <v>40.159999999999997</v>
+        <v>40.195264578072084</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -574,13 +574,13 @@
         <v>270</v>
       </c>
       <c r="B10">
-        <v>3.3785454509999999</v>
+        <v>3.8821607610393229</v>
       </c>
       <c r="C10">
-        <v>7.8112600000000004E-3</v>
+        <v>0.53786912089962247</v>
       </c>
       <c r="D10">
-        <v>8.5399999999999991</v>
+        <v>9.0796127855773108</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -589,13 +589,13 @@
         <v>298</v>
       </c>
       <c r="B11">
-        <v>0.36371815400000002</v>
+        <v>0.57579499853768668</v>
       </c>
       <c r="C11">
-        <v>1.9358340000000002E-2</v>
+        <v>0.39992502566004173</v>
       </c>
       <c r="D11">
-        <v>2.5099999999999998</v>
+        <v>3.3515535419366866</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -604,13 +604,13 @@
         <v>332</v>
       </c>
       <c r="B12">
-        <v>0.43724161900000003</v>
+        <v>1.2761014980146668</v>
       </c>
       <c r="C12">
-        <v>0.37560764000000002</v>
+        <v>1.3228277478824038</v>
       </c>
       <c r="D12">
-        <v>8.23</v>
+        <v>9.0987843063616864</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -619,13 +619,13 @@
         <v>364</v>
       </c>
       <c r="B13">
-        <v>0.61266129999999996</v>
+        <v>1.1279143497455819</v>
       </c>
       <c r="C13">
-        <v>4.5490000000000003E-2</v>
+        <v>0.34451855883043958</v>
       </c>
       <c r="D13">
-        <v>9.82</v>
+        <v>10.457812853229784</v>
       </c>
       <c r="E13" s="1"/>
     </row>
